--- a/zhishu/zhishu.xlsx
+++ b/zhishu/zhishu.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\各种学习\理财学习\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\pcode\zhishu\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -185,32 +185,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="C18" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-2020.8</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="C19" authorId="0" shapeId="0">
       <text>
         <r>
@@ -285,6 +259,32 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
+2020.8</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C22" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
 2020.8
 </t>
         </r>
@@ -316,7 +316,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C26" authorId="0" shapeId="0">
+    <comment ref="C27" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -347,7 +347,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="54">
   <si>
     <t>证券公司（399975）</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -558,6 +558,10 @@
   </si>
   <si>
     <t>计算机指（930651）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>300价值（000919)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -667,7 +671,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -699,6 +703,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -706,7 +741,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -834,14 +869,23 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1139,13 +1183,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P34"/>
+  <dimension ref="A1:P35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N4" sqref="N4:N8"/>
+      <selection pane="bottomRight" activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -1211,7 +1255,7 @@
       </c>
     </row>
     <row r="2" spans="1:14" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="49" t="s">
         <v>26</v>
       </c>
       <c r="B2" s="11" t="s">
@@ -1224,23 +1268,23 @@
         <v>2021</v>
       </c>
       <c r="E2" s="19">
-        <f t="shared" ref="E2:E29" si="0">30*(C2-D2)/100+D2</f>
+        <f t="shared" ref="E2:E30" si="0">30*(C2-D2)/100+D2</f>
         <v>3078.8</v>
       </c>
       <c r="F2" s="19">
-        <f t="shared" ref="F2:F29" si="1">50*(C2-D2)/100+D2</f>
+        <f t="shared" ref="F2:F30" si="1">50*(C2-D2)/100+D2</f>
         <v>3784</v>
       </c>
       <c r="G2" s="19">
-        <f t="shared" ref="G2:G29" si="2">60*(C2-D2)/100+D2</f>
+        <f t="shared" ref="G2:G30" si="2">60*(C2-D2)/100+D2</f>
         <v>4136.6000000000004</v>
       </c>
       <c r="H2" s="42">
-        <v>5110.59</v>
+        <v>5089.2299999999996</v>
       </c>
       <c r="I2" s="20">
         <f>(H2-D2)/(C2-D2)</f>
-        <v>0.87623085649461152</v>
+        <v>0.8701730005672148</v>
       </c>
       <c r="J2" s="15">
         <v>3575.68</v>
@@ -1249,17 +1293,17 @@
         <v>3533.71</v>
       </c>
       <c r="L2" s="16">
-        <f t="shared" ref="L2:L29" si="3">(H2-K2)/K2</f>
-        <v>0.44623922166787883</v>
+        <f t="shared" ref="L2:L30" si="3">(H2-K2)/K2</f>
+        <v>0.44019458303029946</v>
       </c>
       <c r="M2" s="16">
-        <f t="shared" ref="M2:M24" si="4">(H2-J2)/J2</f>
-        <v>0.42926380436728129</v>
+        <f t="shared" ref="M2:M26" si="4">(H2-J2)/J2</f>
+        <v>0.42329011544657236</v>
       </c>
       <c r="N2" s="17"/>
     </row>
     <row r="3" spans="1:14" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="47"/>
+      <c r="A3" s="49"/>
       <c r="B3" s="21" t="s">
         <v>24</v>
       </c>
@@ -1282,11 +1326,11 @@
         <v>8548.7999999999993</v>
       </c>
       <c r="H3" s="42">
-        <v>6525.8</v>
+        <v>6985.75</v>
       </c>
       <c r="I3" s="20">
-        <f t="shared" ref="I3:I29" si="5">(H3-D3)/(C3-D3)</f>
-        <v>0.33617631716223267</v>
+        <f t="shared" ref="I3:I30" si="5">(H3-D3)/(C3-D3)</f>
+        <v>0.39615936358894105</v>
       </c>
       <c r="J3" s="15">
         <v>4510.53</v>
@@ -1296,16 +1340,16 @@
       </c>
       <c r="L3" s="16">
         <f t="shared" si="3"/>
-        <v>0.22602959770492853</v>
+        <v>0.3124423460981342</v>
       </c>
       <c r="M3" s="16">
         <f t="shared" si="4"/>
-        <v>0.44679228383360725</v>
+        <v>0.54876477930531453</v>
       </c>
       <c r="N3" s="17"/>
     </row>
     <row r="4" spans="1:14" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="47"/>
+      <c r="A4" s="49"/>
       <c r="B4" s="21" t="s">
         <v>23</v>
       </c>
@@ -1328,11 +1372,11 @@
         <v>2896.8</v>
       </c>
       <c r="H4" s="42">
-        <v>3033.81</v>
+        <v>3469.87</v>
       </c>
       <c r="I4" s="20">
         <f t="shared" si="5"/>
-        <v>0.64802313354363827</v>
+        <v>0.80086575534525062</v>
       </c>
       <c r="J4" s="15">
         <v>973.23</v>
@@ -1342,16 +1386,16 @@
       </c>
       <c r="L4" s="16">
         <f t="shared" si="3"/>
-        <v>0.93019926706367384</v>
+        <v>1.2076334809385656</v>
       </c>
       <c r="M4" s="16">
         <f t="shared" si="4"/>
-        <v>2.1172590240744737</v>
+        <v>2.5653134408104967</v>
       </c>
       <c r="N4" s="17"/>
     </row>
     <row r="5" spans="1:14" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="47"/>
+      <c r="A5" s="49"/>
       <c r="B5" s="23" t="s">
         <v>22</v>
       </c>
@@ -1374,11 +1418,11 @@
         <v>4082.8</v>
       </c>
       <c r="H5" s="42">
-        <v>3490.38</v>
+        <v>3550.4</v>
       </c>
       <c r="I5" s="20">
         <f t="shared" si="5"/>
-        <v>0.38363038714390069</v>
+        <v>0.40555149744338936</v>
       </c>
       <c r="J5" s="15">
         <v>3277.14</v>
@@ -1388,16 +1432,16 @@
       </c>
       <c r="L5" s="16">
         <f t="shared" si="3"/>
-        <v>7.9049550496494328E-2</v>
+        <v>9.7604708966574832E-2</v>
       </c>
       <c r="M5" s="16">
         <f t="shared" si="4"/>
-        <v>6.5068932056610407E-2</v>
+        <v>8.3383682113062074E-2</v>
       </c>
       <c r="N5" s="17"/>
     </row>
     <row r="6" spans="1:14" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="47"/>
+      <c r="A6" s="49"/>
       <c r="B6" s="24" t="s">
         <v>21</v>
       </c>
@@ -1420,11 +1464,11 @@
         <v>3199.4</v>
       </c>
       <c r="H6" s="42">
-        <v>3503.04</v>
+        <v>3357.45</v>
       </c>
       <c r="I6" s="20">
         <f t="shared" si="5"/>
-        <v>0.79169191919191917</v>
+        <v>0.69977904040404026</v>
       </c>
       <c r="J6" s="15">
         <v>2553.8000000000002</v>
@@ -1434,43 +1478,43 @@
       </c>
       <c r="L6" s="16">
         <f t="shared" si="3"/>
-        <v>0.35694170601610636</v>
+        <v>0.30054579190182701</v>
       </c>
       <c r="M6" s="16">
         <f t="shared" si="4"/>
-        <v>0.3716970788628709</v>
+        <v>0.3146879160466754</v>
       </c>
       <c r="N6" s="17"/>
     </row>
     <row r="7" spans="1:14" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="47"/>
+      <c r="A7" s="49"/>
       <c r="B7" s="24" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="11">
-        <v>6942</v>
+        <v>7629</v>
       </c>
       <c r="D7" s="11">
         <v>4554</v>
       </c>
       <c r="E7" s="25">
         <f t="shared" si="0"/>
-        <v>5270.4</v>
+        <v>5476.5</v>
       </c>
       <c r="F7" s="19">
         <f t="shared" si="1"/>
-        <v>5748</v>
+        <v>6091.5</v>
       </c>
       <c r="G7" s="25">
         <f t="shared" si="2"/>
-        <v>5986.8</v>
+        <v>6399</v>
       </c>
       <c r="H7" s="42">
-        <v>6441.67</v>
+        <v>6208.45</v>
       </c>
       <c r="I7" s="20">
         <f t="shared" si="5"/>
-        <v>0.79048157453936352</v>
+        <v>0.53803252032520321</v>
       </c>
       <c r="J7" s="15" t="s">
         <v>43</v>
@@ -1480,7 +1524,7 @@
       </c>
       <c r="L7" s="16">
         <f t="shared" si="3"/>
-        <v>0.47355382109655209</v>
+        <v>0.4202039565185563</v>
       </c>
       <c r="M7" s="16" t="e">
         <f t="shared" si="4"/>
@@ -1489,7 +1533,7 @@
       <c r="N7" s="17"/>
     </row>
     <row r="8" spans="1:14" s="6" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="47"/>
+      <c r="A8" s="49"/>
       <c r="B8" s="23" t="s">
         <v>19</v>
       </c>
@@ -1512,11 +1556,11 @@
         <v>7746.6</v>
       </c>
       <c r="H8" s="42">
-        <v>8692.85</v>
+        <v>8295.65</v>
       </c>
       <c r="I8" s="20">
         <f t="shared" si="5"/>
-        <v>0.82103480495211412</v>
+        <v>0.72825274468582102</v>
       </c>
       <c r="J8" s="15">
         <v>3392.57</v>
@@ -1526,16 +1570,16 @@
       </c>
       <c r="L8" s="16">
         <f t="shared" si="3"/>
-        <v>0.98287621237420053</v>
+        <v>0.89227319592332033</v>
       </c>
       <c r="M8" s="16">
         <f t="shared" si="4"/>
-        <v>1.5623200110830433</v>
+        <v>1.4452406287858466</v>
       </c>
       <c r="N8" s="17"/>
     </row>
     <row r="9" spans="1:14" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="47"/>
+      <c r="A9" s="49"/>
       <c r="B9" s="11" t="s">
         <v>18</v>
       </c>
@@ -1558,11 +1602,11 @@
         <v>12076.2</v>
       </c>
       <c r="H9" s="42">
-        <v>14208.78</v>
+        <v>15028.57</v>
       </c>
       <c r="I9" s="20">
         <f t="shared" si="5"/>
-        <v>0.85261549395877767</v>
+        <v>0.94972399905235727</v>
       </c>
       <c r="J9" s="15">
         <v>13700</v>
@@ -1572,16 +1616,16 @@
       </c>
       <c r="L9" s="16">
         <f t="shared" si="3"/>
-        <v>0.29170727272727276</v>
+        <v>0.36623363636363632</v>
       </c>
       <c r="M9" s="16">
         <f t="shared" si="4"/>
-        <v>3.7137226277372308E-2</v>
+        <v>9.6975912408759107E-2</v>
       </c>
       <c r="N9" s="17"/>
     </row>
     <row r="10" spans="1:14" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="47" t="s">
+      <c r="A10" s="50" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="26" t="s">
@@ -1606,11 +1650,11 @@
         <v>3376.2</v>
       </c>
       <c r="H10" s="43">
-        <v>2820.72</v>
+        <v>2818.02</v>
       </c>
       <c r="I10" s="20">
         <f t="shared" si="5"/>
-        <v>0.32863702979970677</v>
+        <v>0.32731802638006841</v>
       </c>
       <c r="J10" s="15">
         <v>2814.22</v>
@@ -1620,16 +1664,16 @@
       </c>
       <c r="L10" s="16">
         <f t="shared" si="3"/>
-        <v>0.10716766953593244</v>
+        <v>0.10610788596728798</v>
       </c>
       <c r="M10" s="16">
         <f t="shared" si="4"/>
-        <v>2.3096986020993385E-3</v>
+        <v>1.3502853366119856E-3</v>
       </c>
       <c r="N10" s="17"/>
     </row>
     <row r="11" spans="1:14" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="47"/>
+      <c r="A11" s="51"/>
       <c r="B11" s="27" t="s">
         <v>16</v>
       </c>
@@ -1652,11 +1696,11 @@
         <v>4600.6000000000004</v>
       </c>
       <c r="H11" s="42">
-        <v>5051.4249</v>
+        <v>5054.1009000000004</v>
       </c>
       <c r="I11" s="20">
         <f t="shared" si="5"/>
-        <v>0.95610181674565564</v>
+        <v>0.95821556082148529</v>
       </c>
       <c r="J11" s="15">
         <v>3566.12</v>
@@ -1666,16 +1710,16 @@
       </c>
       <c r="L11" s="16">
         <f t="shared" si="3"/>
-        <v>0.46469058803061924</v>
+        <v>0.4654665100904663</v>
       </c>
       <c r="M11" s="16">
         <f t="shared" si="4"/>
-        <v>0.41650446423563992</v>
+        <v>0.4172548596233443</v>
       </c>
       <c r="N11" s="17"/>
     </row>
     <row r="12" spans="1:14" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="47"/>
+      <c r="A12" s="51"/>
       <c r="B12" s="24" t="s">
         <v>15</v>
       </c>
@@ -1698,11 +1742,11 @@
         <v>12171.874</v>
       </c>
       <c r="H12" s="42">
-        <v>13333.41</v>
+        <v>12128.3</v>
       </c>
       <c r="I12" s="20">
         <f t="shared" si="5"/>
-        <v>0.77788259653066927</v>
+        <v>0.59332689106387781</v>
       </c>
       <c r="J12" s="15">
         <v>5896.15</v>
@@ -1712,16 +1756,16 @@
       </c>
       <c r="L12" s="16">
         <f t="shared" si="3"/>
-        <v>1.3346851082382976</v>
+        <v>1.1236698937666014</v>
       </c>
       <c r="M12" s="16">
         <f t="shared" si="4"/>
-        <v>1.261375643428339</v>
+        <v>1.0569863385429474</v>
       </c>
       <c r="N12" s="17"/>
     </row>
     <row r="13" spans="1:14" s="6" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="47"/>
+      <c r="A13" s="51"/>
       <c r="B13" s="21" t="s">
         <v>14</v>
       </c>
@@ -1744,11 +1788,11 @@
         <v>4486.8</v>
       </c>
       <c r="H13" s="42">
-        <v>4318.5946999999996</v>
+        <v>3919.9362999999998</v>
       </c>
       <c r="I13" s="20">
         <f t="shared" si="5"/>
-        <v>0.47286069538926656</v>
+        <v>0.17153159486016617</v>
       </c>
       <c r="J13" s="15">
         <v>3251.24</v>
@@ -1758,18 +1802,18 @@
       </c>
       <c r="L13" s="16">
         <f t="shared" si="3"/>
-        <v>0.30270027238915131</v>
+        <v>0.18244531855654855</v>
       </c>
       <c r="M13" s="16">
         <f t="shared" si="4"/>
-        <v>0.32829157490680477</v>
+        <v>0.20567423506108443</v>
       </c>
       <c r="N13" s="29" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="47"/>
+      <c r="A14" s="51"/>
       <c r="B14" s="11" t="s">
         <v>48</v>
       </c>
@@ -1792,11 +1836,11 @@
         <v>9475.6</v>
       </c>
       <c r="H14" s="42">
-        <v>10535.62</v>
+        <v>10077.370000000001</v>
       </c>
       <c r="I14" s="20">
         <f t="shared" si="5"/>
-        <v>0.85722397476340717</v>
+        <v>0.74602523659306008</v>
       </c>
       <c r="J14" s="15">
         <v>5236.32</v>
@@ -1806,16 +1850,16 @@
       </c>
       <c r="L14" s="16">
         <f t="shared" si="3"/>
-        <v>1.2910494498325578</v>
+        <v>1.1913995563867263</v>
       </c>
       <c r="M14" s="16">
         <f t="shared" si="4"/>
-        <v>1.0120275307849791</v>
+        <v>0.92451378067039469</v>
       </c>
       <c r="N14" s="17"/>
     </row>
     <row r="15" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="47"/>
+      <c r="A15" s="51"/>
       <c r="B15" s="11" t="s">
         <v>12</v>
       </c>
@@ -1838,11 +1882,11 @@
         <v>6812.8</v>
       </c>
       <c r="H15" s="42">
-        <v>7011.5483999999997</v>
+        <v>6531.2789000000002</v>
       </c>
       <c r="I15" s="20">
         <f t="shared" si="5"/>
-        <v>0.71568591385331759</v>
+        <v>0.43613440046565788</v>
       </c>
       <c r="J15" s="15">
         <v>4283.07</v>
@@ -1852,16 +1896,16 @@
       </c>
       <c r="L15" s="16">
         <f t="shared" si="3"/>
-        <v>0.25252967625417339</v>
+        <v>0.16673524583281982</v>
       </c>
       <c r="M15" s="16">
         <f t="shared" si="4"/>
-        <v>0.63703801245368397</v>
+        <v>0.52490594363388898</v>
       </c>
       <c r="N15" s="17"/>
     </row>
     <row r="16" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="47"/>
+      <c r="A16" s="51"/>
       <c r="B16" s="11" t="s">
         <v>11</v>
       </c>
@@ -1884,11 +1928,11 @@
         <v>14095.2</v>
       </c>
       <c r="H16" s="42">
-        <v>12615.712299999999</v>
+        <v>12416.391</v>
       </c>
       <c r="I16" s="20">
         <f t="shared" si="5"/>
-        <v>0.45185864624011207</v>
+        <v>0.43190057074196453</v>
       </c>
       <c r="J16" s="15">
         <v>5881.71</v>
@@ -1898,386 +1942,376 @@
       </c>
       <c r="L16" s="16">
         <f t="shared" si="3"/>
-        <v>0.44359730086004467</v>
+        <v>0.42078925928129729</v>
       </c>
       <c r="M16" s="16">
         <f t="shared" si="4"/>
-        <v>1.1449055291743386</v>
+        <v>1.1110172041804169</v>
       </c>
       <c r="N16" s="17"/>
     </row>
     <row r="17" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="48" t="s">
+      <c r="A17" s="52"/>
+      <c r="B17" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="11">
+        <v>5711</v>
+      </c>
+      <c r="D17" s="11">
+        <v>4015</v>
+      </c>
+      <c r="E17" s="11">
+        <f t="shared" si="0"/>
+        <v>4523.8</v>
+      </c>
+      <c r="F17" s="11">
+        <f t="shared" si="1"/>
+        <v>4863</v>
+      </c>
+      <c r="G17" s="11">
+        <f t="shared" si="2"/>
+        <v>5032.6000000000004</v>
+      </c>
+      <c r="H17" s="42">
+        <v>4872.0416999999998</v>
+      </c>
+      <c r="I17" s="20">
+        <f t="shared" si="5"/>
+        <v>0.50533119103773572</v>
+      </c>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="17"/>
+    </row>
+    <row r="18" spans="1:14" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B18" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="24">
+      <c r="C18" s="24">
         <v>13606</v>
       </c>
-      <c r="D17" s="24">
+      <c r="D18" s="24">
         <v>5831</v>
       </c>
-      <c r="E17" s="30">
+      <c r="E18" s="30">
         <f t="shared" si="0"/>
         <v>8163.5</v>
       </c>
-      <c r="F17" s="24">
+      <c r="F18" s="24">
         <f t="shared" si="1"/>
         <v>9718.5</v>
       </c>
-      <c r="G17" s="30">
+      <c r="G18" s="30">
         <f t="shared" si="2"/>
         <v>10496</v>
       </c>
-      <c r="H17" s="43">
-        <v>9738.08</v>
-      </c>
-      <c r="I17" s="20">
+      <c r="H18" s="43">
+        <v>8724.01</v>
+      </c>
+      <c r="I18" s="20">
         <f t="shared" si="5"/>
-        <v>0.50251832797427654</v>
-      </c>
-      <c r="J17" s="31">
+        <v>0.37209131832797432</v>
+      </c>
+      <c r="J18" s="31">
         <v>4608.6000000000004</v>
       </c>
-      <c r="K17" s="31">
+      <c r="K18" s="31">
         <v>6630.09</v>
       </c>
-      <c r="L17" s="16">
+      <c r="L18" s="16">
         <f t="shared" si="3"/>
-        <v>0.4687704088481453</v>
-      </c>
-      <c r="M17" s="16">
+        <v>0.31582075054788095</v>
+      </c>
+      <c r="M18" s="16">
         <f t="shared" si="4"/>
-        <v>1.1130234778457664</v>
-      </c>
-      <c r="N17" s="17"/>
-    </row>
-    <row r="18" spans="1:14" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A18" s="49"/>
-      <c r="B18" s="11" t="s">
+        <v>0.89298485440263842</v>
+      </c>
+      <c r="N18" s="17"/>
+    </row>
+    <row r="19" spans="1:14" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A19" s="48"/>
+      <c r="B19" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C19" s="11">
         <v>30754</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D19" s="11">
         <v>8628</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E19" s="11">
         <f t="shared" si="0"/>
         <v>15265.8</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F19" s="11">
         <f t="shared" si="1"/>
         <v>19691</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G19" s="11">
         <f t="shared" si="2"/>
         <v>21903.599999999999</v>
       </c>
-      <c r="H18" s="42">
-        <v>26837.98</v>
-      </c>
-      <c r="I18" s="20">
+      <c r="H19" s="42">
+        <v>24314.84</v>
+      </c>
+      <c r="I19" s="20">
         <f t="shared" si="5"/>
-        <v>0.82301274518665823</v>
-      </c>
-      <c r="J18" s="15">
+        <v>0.70897767332549944</v>
+      </c>
+      <c r="J19" s="15">
         <v>5921.33</v>
       </c>
-      <c r="K18" s="15">
+      <c r="K19" s="15">
         <v>6409.69</v>
       </c>
-      <c r="L18" s="16">
+      <c r="L19" s="16">
         <f t="shared" si="3"/>
-        <v>3.1870948517010969</v>
-      </c>
-      <c r="M18" s="16">
+        <v>2.7934502292622581</v>
+      </c>
+      <c r="M19" s="16">
         <f t="shared" si="4"/>
-        <v>3.5324243033237468</v>
-      </c>
-      <c r="N18" s="17"/>
-    </row>
-    <row r="19" spans="1:14" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A19" s="49"/>
-      <c r="B19" s="11" t="s">
+        <v>3.1063139531152633</v>
+      </c>
+      <c r="N19" s="17"/>
+    </row>
+    <row r="20" spans="1:14" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A20" s="48"/>
+      <c r="B20" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C20" s="11">
         <v>16712</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D20" s="11">
         <v>7165</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E20" s="11">
         <f t="shared" si="0"/>
         <v>10029.1</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F20" s="11">
         <f t="shared" si="1"/>
         <v>11938.5</v>
       </c>
-      <c r="G19" s="11">
+      <c r="G20" s="11">
         <f t="shared" si="2"/>
         <v>12893.2</v>
       </c>
-      <c r="H19" s="42">
-        <v>16565.41</v>
-      </c>
-      <c r="I19" s="20">
+      <c r="H20" s="42">
+        <v>15610</v>
+      </c>
+      <c r="I20" s="20">
         <f t="shared" si="5"/>
-        <v>0.98464543835759921</v>
-      </c>
-      <c r="J19" s="15">
+        <v>0.88457106944589925</v>
+      </c>
+      <c r="J20" s="15">
         <v>5482.38</v>
       </c>
-      <c r="K19" s="15">
+      <c r="K20" s="15">
         <v>7287.89</v>
       </c>
-      <c r="L19" s="16">
+      <c r="L20" s="16">
         <f t="shared" si="3"/>
-        <v>1.273004943817758</v>
-      </c>
-      <c r="M19" s="16">
+        <v>1.1419093866674717</v>
+      </c>
+      <c r="M20" s="16">
         <f t="shared" si="4"/>
-        <v>2.0215727476023186</v>
-      </c>
-      <c r="N19" s="17"/>
-    </row>
-    <row r="20" spans="1:14" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A20" s="49"/>
-      <c r="B20" s="11" t="s">
+        <v>1.8473035433516098</v>
+      </c>
+      <c r="N20" s="17"/>
+    </row>
+    <row r="21" spans="1:14" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A21" s="48"/>
+      <c r="B21" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C21" s="11">
         <v>21235</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D21" s="11">
         <v>9337</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E21" s="11">
         <f t="shared" si="0"/>
         <v>12906.4</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F21" s="11">
         <f t="shared" si="1"/>
         <v>15286</v>
       </c>
-      <c r="G20" s="11">
+      <c r="G21" s="11">
         <f t="shared" si="2"/>
         <v>16475.8</v>
       </c>
-      <c r="H20" s="42">
-        <v>19091.431100000002</v>
-      </c>
-      <c r="I20" s="20">
-        <f t="shared" si="5"/>
-        <v>0.81983788031601967</v>
-      </c>
-      <c r="J20" s="15">
-        <v>6461.68</v>
-      </c>
-      <c r="K20" s="15">
-        <v>10000</v>
-      </c>
-      <c r="L20" s="16">
-        <f t="shared" si="3"/>
-        <v>0.90914311000000014</v>
-      </c>
-      <c r="M20" s="16">
-        <f t="shared" si="4"/>
-        <v>1.9545615226999791</v>
-      </c>
-      <c r="N20" s="17"/>
-    </row>
-    <row r="21" spans="1:14" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A21" s="49"/>
-      <c r="B21" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="11">
-        <v>19868</v>
-      </c>
-      <c r="D21" s="11">
-        <v>5803</v>
-      </c>
-      <c r="E21" s="11">
-        <f t="shared" si="0"/>
-        <v>10022.5</v>
-      </c>
-      <c r="F21" s="11">
-        <f t="shared" si="1"/>
-        <v>12835.5</v>
-      </c>
-      <c r="G21" s="11">
-        <f t="shared" si="2"/>
-        <v>14242</v>
-      </c>
       <c r="H21" s="42">
-        <v>17658.45</v>
+        <v>17860.576000000001</v>
       </c>
       <c r="I21" s="20">
         <f t="shared" si="5"/>
-        <v>0.84290437255599004</v>
+        <v>0.71638729198184581</v>
       </c>
       <c r="J21" s="15">
-        <v>3558.63</v>
+        <v>6461.68</v>
       </c>
       <c r="K21" s="15">
-        <v>6332.54</v>
+        <v>10000</v>
       </c>
       <c r="L21" s="16">
         <f t="shared" si="3"/>
-        <v>1.7885256153139182</v>
+        <v>0.78605760000000013</v>
       </c>
       <c r="M21" s="16">
         <f t="shared" si="4"/>
-        <v>3.9621483548444201</v>
+        <v>1.7640762154733753</v>
       </c>
       <c r="N21" s="17"/>
     </row>
-    <row r="22" spans="1:14" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A22" s="49"/>
-      <c r="B22" s="32" t="s">
+    <row r="22" spans="1:14" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A22" s="48"/>
+      <c r="B22" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="11">
+        <v>19992</v>
+      </c>
+      <c r="D22" s="11">
+        <v>5803</v>
+      </c>
+      <c r="E22" s="11">
+        <f t="shared" si="0"/>
+        <v>10059.700000000001</v>
+      </c>
+      <c r="F22" s="11">
+        <f t="shared" si="1"/>
+        <v>12897.5</v>
+      </c>
+      <c r="G22" s="11">
+        <f t="shared" si="2"/>
+        <v>14316.4</v>
+      </c>
+      <c r="H22" s="42">
+        <v>17502.939999999999</v>
+      </c>
+      <c r="I22" s="20">
+        <f t="shared" si="5"/>
+        <v>0.82457819437592494</v>
+      </c>
+      <c r="J22" s="15">
+        <v>3558.63</v>
+      </c>
+      <c r="K22" s="15">
+        <v>6332.54</v>
+      </c>
+      <c r="L22" s="16">
+        <f t="shared" si="3"/>
+        <v>1.7639683286643271</v>
+      </c>
+      <c r="M22" s="16">
+        <f t="shared" si="4"/>
+        <v>3.9184489536703722</v>
+      </c>
+      <c r="N22" s="17"/>
+    </row>
+    <row r="23" spans="1:14" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A23" s="48"/>
+      <c r="B23" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="32">
+      <c r="C23" s="32">
         <v>7693</v>
       </c>
-      <c r="D22" s="32">
+      <c r="D23" s="32">
         <v>5383</v>
       </c>
-      <c r="E22" s="32">
+      <c r="E23" s="32">
         <f t="shared" si="0"/>
         <v>6076</v>
       </c>
-      <c r="F22" s="33">
+      <c r="F23" s="33">
         <f t="shared" si="1"/>
         <v>6538</v>
       </c>
-      <c r="G22" s="33">
+      <c r="G23" s="33">
         <f t="shared" si="2"/>
         <v>6769</v>
       </c>
-      <c r="H22" s="44">
-        <v>7250.56</v>
-      </c>
-      <c r="I22" s="20">
+      <c r="H23" s="44">
+        <v>6494.24</v>
+      </c>
+      <c r="I23" s="20">
         <f t="shared" si="5"/>
-        <v>0.80846753246753267</v>
-      </c>
-      <c r="J22" s="15">
+        <v>0.48105627705627696</v>
+      </c>
+      <c r="J23" s="15">
         <v>5279.09</v>
       </c>
-      <c r="K22" s="15">
+      <c r="K23" s="15">
         <v>6002.38</v>
       </c>
-      <c r="L22" s="16">
+      <c r="L23" s="16">
         <f t="shared" si="3"/>
-        <v>0.20794751415271948</v>
-      </c>
-      <c r="M22" s="16">
+        <v>8.1944162149014163E-2</v>
+      </c>
+      <c r="M23" s="16">
         <f t="shared" si="4"/>
-        <v>0.3734488330375122</v>
-      </c>
-      <c r="N22" s="34"/>
-    </row>
-    <row r="23" spans="1:14" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A23" s="49"/>
-      <c r="B23" s="35" t="s">
+        <v>0.23018171692469716</v>
+      </c>
+      <c r="N23" s="34"/>
+    </row>
+    <row r="24" spans="1:14" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A24" s="48"/>
+      <c r="B24" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="35">
+      <c r="C24" s="35">
         <v>1054</v>
       </c>
-      <c r="D23" s="35">
+      <c r="D24" s="35">
         <v>466</v>
       </c>
-      <c r="E23" s="35">
+      <c r="E24" s="35">
         <f t="shared" si="0"/>
         <v>642.4</v>
       </c>
-      <c r="F23" s="36">
+      <c r="F24" s="36">
         <f t="shared" si="1"/>
         <v>760</v>
       </c>
-      <c r="G23" s="36">
+      <c r="G24" s="36">
         <f t="shared" si="2"/>
         <v>818.8</v>
       </c>
-      <c r="H23" s="44">
-        <v>811.83</v>
-      </c>
-      <c r="I23" s="20">
-        <f t="shared" si="5"/>
-        <v>0.58814625850340141</v>
-      </c>
-      <c r="J23" s="15">
-        <v>1175.26</v>
-      </c>
-      <c r="K23" s="15">
-        <v>1436.18</v>
-      </c>
-      <c r="L23" s="16">
-        <f t="shared" si="3"/>
-        <v>-0.43472962999066966</v>
-      </c>
-      <c r="M23" s="16">
-        <f t="shared" si="4"/>
-        <v>-0.30923370147882168</v>
-      </c>
-      <c r="N23" s="34"/>
-    </row>
-    <row r="24" spans="1:14" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A24" s="49"/>
-      <c r="B24" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24" s="37">
-        <v>18400</v>
-      </c>
-      <c r="D24" s="37">
-        <v>4890</v>
-      </c>
-      <c r="E24" s="37">
-        <f t="shared" si="0"/>
-        <v>8943</v>
-      </c>
-      <c r="F24" s="37">
-        <f t="shared" si="1"/>
-        <v>11645</v>
-      </c>
-      <c r="G24" s="37">
-        <f t="shared" si="2"/>
-        <v>12996</v>
-      </c>
-      <c r="H24" s="42">
-        <v>8494.6712000000007</v>
+      <c r="H24" s="44">
+        <v>831.54</v>
       </c>
       <c r="I24" s="20">
         <f t="shared" si="5"/>
-        <v>0.26681504071058482</v>
+        <v>0.62166666666666659</v>
       </c>
       <c r="J24" s="15">
-        <v>3544.66</v>
+        <v>1175.26</v>
       </c>
       <c r="K24" s="15">
-        <v>5891.94</v>
+        <v>1436.18</v>
       </c>
       <c r="L24" s="16">
         <f t="shared" si="3"/>
-        <v>0.4417443490599024</v>
+        <v>-0.42100572351655091</v>
       </c>
       <c r="M24" s="16">
         <f t="shared" si="4"/>
-        <v>1.3964699576264017</v>
-      </c>
-      <c r="N24" s="17"/>
+        <v>-0.29246294436975651</v>
+      </c>
+      <c r="N24" s="34"/>
     </row>
     <row r="25" spans="1:14" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A25" s="49"/>
+      <c r="A25" s="48"/>
       <c r="B25" s="37" t="s">
         <v>51</v>
       </c>
@@ -2288,23 +2322,23 @@
         <v>3495</v>
       </c>
       <c r="E25" s="37">
-        <f t="shared" si="0"/>
+        <f>30*(C25-D25)/100+D25</f>
         <v>4029.6</v>
       </c>
       <c r="F25" s="37">
-        <f t="shared" si="1"/>
+        <f>50*(C25-D25)/100+D25</f>
         <v>4386</v>
       </c>
       <c r="G25" s="37">
-        <f t="shared" si="2"/>
+        <f>60*(C25-D25)/100+D25</f>
         <v>4564.2</v>
       </c>
       <c r="H25" s="42">
-        <v>4659.0906999999997</v>
+        <v>5039.2408999999998</v>
       </c>
       <c r="I25" s="20">
-        <f t="shared" si="5"/>
-        <v>0.65324955106621763</v>
+        <f>(H25-D25)/(C25-D25)</f>
+        <v>0.86657738496071812</v>
       </c>
       <c r="J25" s="15" t="s">
         <v>44</v>
@@ -2313,8 +2347,8 @@
         <v>2730.96</v>
       </c>
       <c r="L25" s="16">
-        <f t="shared" si="3"/>
-        <v>0.70602670855669791</v>
+        <f>(H25-K25)/K25</f>
+        <v>0.84522691654216819</v>
       </c>
       <c r="M25" s="16"/>
       <c r="N25" s="29" t="s">
@@ -2322,222 +2356,267 @@
       </c>
     </row>
     <row r="26" spans="1:14" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A26" s="49"/>
+      <c r="A26" s="48"/>
       <c r="B26" s="37" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="C26" s="37">
-        <v>5633</v>
+        <v>18400</v>
       </c>
       <c r="D26" s="37">
-        <v>3529</v>
+        <v>4890</v>
       </c>
       <c r="E26" s="37">
         <f t="shared" si="0"/>
-        <v>4160.2</v>
+        <v>8943</v>
       </c>
       <c r="F26" s="37">
         <f t="shared" si="1"/>
-        <v>4581</v>
+        <v>11645</v>
       </c>
       <c r="G26" s="37">
         <f t="shared" si="2"/>
-        <v>4791.3999999999996</v>
+        <v>12996</v>
       </c>
       <c r="H26" s="42">
-        <v>4579.5012999999999</v>
+        <v>9284.8863000000001</v>
       </c>
       <c r="I26" s="20">
         <f t="shared" si="5"/>
-        <v>0.49928769011406837</v>
-      </c>
-      <c r="J26" s="15" t="s">
-        <v>44</v>
+        <v>0.32530616580310884</v>
+      </c>
+      <c r="J26" s="15">
+        <v>3544.66</v>
       </c>
       <c r="K26" s="15">
-        <v>4520.32</v>
+        <v>5891.94</v>
       </c>
       <c r="L26" s="16">
         <f t="shared" si="3"/>
-        <v>1.3092281077445887E-2</v>
-      </c>
-      <c r="M26" s="16"/>
-      <c r="N26" s="29" t="s">
-        <v>36</v>
-      </c>
+        <v>0.57586233057363123</v>
+      </c>
+      <c r="M26" s="16">
+        <f t="shared" si="4"/>
+        <v>1.6194010991181103</v>
+      </c>
+      <c r="N26" s="17"/>
     </row>
     <row r="27" spans="1:14" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A27" s="49"/>
+      <c r="A27" s="48"/>
       <c r="B27" s="37" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C27" s="37">
-        <v>1545</v>
+        <v>5633</v>
       </c>
       <c r="D27" s="37">
-        <v>1101</v>
+        <v>3529</v>
       </c>
       <c r="E27" s="37">
         <f t="shared" si="0"/>
-        <v>1234.2</v>
+        <v>4160.2</v>
       </c>
       <c r="F27" s="37">
         <f t="shared" si="1"/>
-        <v>1323</v>
+        <v>4581</v>
       </c>
       <c r="G27" s="37">
         <f t="shared" si="2"/>
-        <v>1367.4</v>
+        <v>4791.3999999999996</v>
       </c>
       <c r="H27" s="42">
-        <v>1081.2585999999999</v>
+        <v>5419.4264999999996</v>
       </c>
       <c r="I27" s="20">
         <f t="shared" si="5"/>
-        <v>-4.4462612612612869E-2</v>
+        <v>0.89849168250950551</v>
       </c>
       <c r="J27" s="15" t="s">
         <v>44</v>
       </c>
       <c r="K27" s="15">
-        <v>1214.6300000000001</v>
+        <v>4520.32</v>
       </c>
       <c r="L27" s="16">
         <f t="shared" si="3"/>
-        <v>-0.10980413788561143</v>
+        <v>0.19890328560809853</v>
       </c>
       <c r="M27" s="16"/>
       <c r="N27" s="29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A28" s="48"/>
+      <c r="B28" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="37">
+        <v>1545</v>
+      </c>
+      <c r="D28" s="37">
+        <v>1101</v>
+      </c>
+      <c r="E28" s="37">
+        <f t="shared" si="0"/>
+        <v>1234.2</v>
+      </c>
+      <c r="F28" s="37">
+        <f t="shared" si="1"/>
+        <v>1323</v>
+      </c>
+      <c r="G28" s="37">
+        <f t="shared" si="2"/>
+        <v>1367.4</v>
+      </c>
+      <c r="H28" s="42">
+        <v>1238.7651000000001</v>
+      </c>
+      <c r="I28" s="20">
+        <f t="shared" si="5"/>
+        <v>0.3102817567567569</v>
+      </c>
+      <c r="J28" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="K28" s="15">
+        <v>1214.6300000000001</v>
+      </c>
+      <c r="L28" s="16">
+        <f t="shared" si="3"/>
+        <v>1.9870330882655593E-2</v>
+      </c>
+      <c r="M28" s="16"/>
+      <c r="N28" s="29" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:14" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A28" s="49"/>
-      <c r="B28" s="38" t="s">
+    <row r="29" spans="1:14" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A29" s="48"/>
+      <c r="B29" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="38">
+      <c r="C29" s="38">
         <v>12500</v>
       </c>
-      <c r="D28" s="38">
+      <c r="D29" s="38">
         <v>4988</v>
       </c>
-      <c r="E28" s="38">
+      <c r="E29" s="38">
         <f t="shared" si="0"/>
         <v>7241.6</v>
       </c>
-      <c r="F28" s="39">
+      <c r="F29" s="39">
         <f t="shared" si="1"/>
         <v>8744</v>
       </c>
-      <c r="G28" s="39">
+      <c r="G29" s="39">
         <f t="shared" si="2"/>
         <v>9495.2000000000007</v>
       </c>
-      <c r="H28" s="45">
-        <v>7955.1845000000003</v>
-      </c>
-      <c r="I28" s="20">
+      <c r="H29" s="45">
+        <v>7310.9369999999999</v>
+      </c>
+      <c r="I29" s="20">
         <f t="shared" si="5"/>
-        <v>0.3949926118210863</v>
-      </c>
-      <c r="J28" s="15" t="s">
+        <v>0.30923016506922257</v>
+      </c>
+      <c r="J29" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="K28" s="15">
+      <c r="K29" s="15">
         <v>5521.36</v>
       </c>
-      <c r="L28" s="16">
+      <c r="L29" s="16">
         <f t="shared" si="3"/>
-        <v>0.44080163220655794</v>
-      </c>
-      <c r="M28" s="16"/>
-      <c r="N28" s="29" t="s">
+        <v>0.32411887650868632</v>
+      </c>
+      <c r="M29" s="16"/>
+      <c r="N29" s="29" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:14" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A29" s="49"/>
-      <c r="B29" s="37" t="s">
+    <row r="30" spans="1:14" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A30" s="48"/>
+      <c r="B30" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="37">
+      <c r="C30" s="37">
         <v>8365</v>
       </c>
-      <c r="D29" s="37">
+      <c r="D30" s="37">
         <v>4938</v>
       </c>
-      <c r="E29" s="37">
+      <c r="E30" s="37">
         <f t="shared" si="0"/>
         <v>5966.1</v>
       </c>
-      <c r="F29" s="37">
+      <c r="F30" s="37">
         <f t="shared" si="1"/>
         <v>6651.5</v>
       </c>
-      <c r="G29" s="37">
+      <c r="G30" s="37">
         <f t="shared" si="2"/>
         <v>6994.2</v>
       </c>
-      <c r="H29" s="42">
-        <v>6096.8675000000003</v>
-      </c>
-      <c r="I29" s="20">
+      <c r="H30" s="42">
+        <v>8847.3487000000005</v>
+      </c>
+      <c r="I30" s="20">
         <f t="shared" si="5"/>
-        <v>0.33815800992121398</v>
-      </c>
-      <c r="J29" s="15" t="s">
+        <v>1.140749547709367</v>
+      </c>
+      <c r="J30" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="K29" s="15">
+      <c r="K30" s="15">
         <v>3317.81</v>
       </c>
-      <c r="L29" s="16">
+      <c r="L30" s="16">
         <f t="shared" si="3"/>
-        <v>0.837618037199237</v>
-      </c>
-      <c r="M29" s="16"/>
-      <c r="N29" s="29" t="s">
+        <v>1.6666230736540071</v>
+      </c>
+      <c r="M30" s="16"/>
+      <c r="N30" s="29" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A30" s="38"/>
-      <c r="B30" s="38" t="s">
+    <row r="31" spans="1:14" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A31" s="38"/>
+      <c r="B31" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="46"/>
-      <c r="I30" s="40"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="16"/>
-      <c r="N30" s="34"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A32" s="5"/>
-    </row>
-    <row r="34" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I34" s="10"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="34"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A33" s="5"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I35" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="A2:A9"/>
-    <mergeCell ref="A10:A16"/>
-    <mergeCell ref="A17:A29"/>
+    <mergeCell ref="A10:A17"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="I1:I33 I35:I1048576">
+  <conditionalFormatting sqref="I36:I1048576 I1:I34">
     <cfRule type="cellIs" dxfId="1" priority="3" operator="greaterThanOrEqual">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:I29">
+  <conditionalFormatting sqref="I5:I30">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0.3</formula>
     </cfRule>
